--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_origin_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_origin_kernel.xlsx
@@ -10,6 +10,8 @@
     <sheet name="origin_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="origin_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="origin_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="origin_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="origin_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1469,4 +1471,704 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>77.91356326611822</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5277745073040327</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7791356326611822</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7767795976528806</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>72.36048754747013</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6734338458627462</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7236048754747013</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7073964686072272</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>78.91737817801192</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5548174601048231</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7891737817801192</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7856099591721819</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>72.69647661311949</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7378233241538207</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7269647661311949</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7257739794373685</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>60.61834444934644</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.12759282591093</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6061834444934645</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5701949669751836</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>70.22984627894705</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7740832454214494</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7022984627894704</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6899958658748088</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>69.42162129430184</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8639448995391528</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6942162129430185</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6711142891222741</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>72.7033970882101</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6629528461645047</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7270339708821011</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7253191675045859</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>71.82034446664764</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7274017017955582</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7182034446664763</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6964737149381554</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>72.48315296845128</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7182693082295979</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7248315296845128</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7162797520403343</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>70.61280806927395</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7983754682044187</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7061280806927395</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7030390924016976</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>75.8357771260997</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6224302457024653</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7583577712609971</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7555048687859657</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>88.53372434017595</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3298924363038774</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8853372434017596</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8841227942757198</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>82.86395211031237</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4276404909651319</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8286395211031238</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8158138574549051</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>90.89066514416214</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2905299046184761</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9089066514416215</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9026755892838038</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>75.19343592937655</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.655797500685399</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7519343592937654</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7417395975684727</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>54.12010484519762</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.060607241590818</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5412010484519763</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5373219345982839</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>58.77481639114526</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9227357079585394</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5877481639114526</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5727508725064212</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>59.09514788190209</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9244361142317453</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.590951478819021</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5684971411642809</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>56.42323895535428</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.110822612047195</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5642323895535428</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5382471980366932</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>51.90529329838493</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.103106491267681</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5190529329838494</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4759516069738786</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>56.38924212147164</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.022430354356766</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5638924212147164</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.554164036785739</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>37.56529035718302</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.462752291063468</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3756529035718302</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3025838399881659</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>46.8146783276672</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.159744716684024</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4681467832766719</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4512103183444395</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>48.64220278722134</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.031642520427704</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4864220278722134</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4553849884444618</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>55.77790465315444</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9778139074643454</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5577790465315443</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5416687782086788</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>51.74508430003719</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.075051687161128</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5174508430003719</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4978657585520191</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>52.08574468637272</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.018913287917773</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5208574468637271</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4956796758819776</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>68.38476111385047</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7734935089945794</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6838476111385047</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6682209250111479</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>74.07936054810162</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5576035865325442</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7407936054810162</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7390956594020803</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>88.66054204621148</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3136748274167379</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8866054204621147</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8871080689835378</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>57.36422748755035</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9676552570076699</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5736422748755035</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5523833868587871</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>